--- a/biology/Zoologie/Amerotyphlops_tycherus/Amerotyphlops_tycherus.xlsx
+++ b/biology/Zoologie/Amerotyphlops_tycherus/Amerotyphlops_tycherus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amerotyphlops tycherus est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amerotyphlops tycherus est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département de Santa Bárbara au Honduras. Elle se rencontre à 1 550 m d'altitude dans la Montaña de Santa Bárbara[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département de Santa Bárbara au Honduras. Elle se rencontre à 1 550 m d'altitude dans la Montaña de Santa Bárbara,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype d'Amerotyphlops tycherus[2], une femelle adulte, mesure 371 mm dont 5,6 mm pour la queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype d'Amerotyphlops tycherus, une femelle adulte, mesure 371 mm dont 5,6 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du grec ancien τυχερός, tycheros, « chanceux », lui a été donné en référence à la suite d'évènements providentiels qui ont conduit à l'obtention de l'holotype[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du grec ancien τυχερός, tycheros, « chanceux », lui a été donné en référence à la suite d'évènements providentiels qui ont conduit à l'obtention de l'holotype.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Townsend, Wilson, Ketzler &amp; Luque-Montes, 2008 : The largest blindsnake in Mesoamerica: a new species of Typhlops (Squamata: Typhlopidae) from an isolated karstic mountain in Honduras. Zootaxa, no 1932, p. 18–26.</t>
         </is>
